--- a/data_year/zb/公共管理、社会保障及其他/社会保险基本情况.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/社会保险基本情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,652 +478,394 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.8</v>
+        <v>147.4509</v>
       </c>
       <c r="C2" t="n">
-        <v>10408.4</v>
+        <v>13375.595</v>
       </c>
       <c r="D2" t="n">
-        <v>3001.6395</v>
+        <v>12335.9483</v>
       </c>
       <c r="E2" t="n">
-        <v>329.7489</v>
+        <v>431.6</v>
       </c>
       <c r="F2" t="n">
-        <v>56.1984</v>
+        <v>140.4485</v>
       </c>
       <c r="G2" t="n">
-        <v>2862.7811</v>
+        <v>17791.1617</v>
       </c>
       <c r="H2" t="n">
-        <v>924.1684</v>
+        <v>5943.513</v>
       </c>
       <c r="I2" t="n">
-        <v>4350.2744</v>
+        <v>16160.7122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.7086</v>
+        <v>163.0105</v>
       </c>
       <c r="C3" t="n">
-        <v>10354.6</v>
+        <v>14317.0725</v>
       </c>
       <c r="D3" t="n">
-        <v>3455.0557</v>
+        <v>13891.9887</v>
       </c>
       <c r="E3" t="n">
-        <v>468.547</v>
+        <v>394.3992</v>
       </c>
       <c r="F3" t="n">
-        <v>83.2563</v>
+        <v>159.8544143714</v>
       </c>
       <c r="G3" t="n">
-        <v>5470.7406</v>
+        <v>18948.4781</v>
       </c>
       <c r="H3" t="n">
-        <v>1815.1737</v>
+        <v>6278.6184</v>
       </c>
       <c r="I3" t="n">
-        <v>4345.3489</v>
+        <v>17695.9436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.5</v>
+        <v>190.5114</v>
       </c>
       <c r="C4" t="n">
-        <v>10181.6</v>
+        <v>15224.714</v>
       </c>
       <c r="D4" t="n">
-        <v>3488.2</v>
+        <v>15428.6522</v>
       </c>
       <c r="E4" t="n">
-        <v>657</v>
+        <v>390.0537</v>
       </c>
       <c r="F4" t="n">
-        <v>116.7736</v>
+        <v>181.29338584</v>
       </c>
       <c r="G4" t="n">
-        <v>6925.8</v>
+        <v>19861.3225</v>
       </c>
       <c r="H4" t="n">
-        <v>2475.4</v>
+        <v>6624.2424</v>
       </c>
       <c r="I4" t="n">
-        <v>4405.6</v>
+        <v>19010.0989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.9</v>
+        <v>195.1522</v>
       </c>
       <c r="C5" t="n">
-        <v>10372.9</v>
+        <v>16416.833</v>
       </c>
       <c r="D5" t="n">
-        <v>3655.4</v>
+        <v>16391.9924</v>
       </c>
       <c r="E5" t="n">
-        <v>741.6</v>
+        <v>416.7445</v>
       </c>
       <c r="F5" t="n">
-        <v>133.4448</v>
+        <v>203.23885051</v>
       </c>
       <c r="G5" t="n">
-        <v>7974.9</v>
+        <v>20501.2931</v>
       </c>
       <c r="H5" t="n">
-        <v>2926.8</v>
+        <v>6941.8482</v>
       </c>
       <c r="I5" t="n">
-        <v>4574.8</v>
+        <v>19917.2415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.8808</v>
+        <v>198.1508</v>
       </c>
       <c r="C6" t="n">
-        <v>10583.9</v>
+        <v>17042.574</v>
       </c>
       <c r="D6" t="n">
-        <v>4383.8</v>
+        <v>17038.6583</v>
       </c>
       <c r="E6" t="n">
-        <v>753.5</v>
+        <v>422.0321</v>
       </c>
       <c r="F6" t="n">
-        <v>137.4983</v>
+        <v>233.2793893034</v>
       </c>
       <c r="G6" t="n">
-        <v>9044.4</v>
+        <v>21041.2602</v>
       </c>
       <c r="H6" t="n">
-        <v>3359.2</v>
+        <v>7254.7729</v>
       </c>
       <c r="I6" t="n">
-        <v>6845.1673</v>
+        <v>20639.1566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.09999999999999</v>
+        <v>201.8645</v>
       </c>
       <c r="C7" t="n">
-        <v>10647.6656</v>
+        <v>17325.987</v>
       </c>
       <c r="D7" t="n">
-        <v>5408.5</v>
+        <v>17771.0437</v>
       </c>
       <c r="E7" t="n">
-        <v>677.8</v>
+        <v>456.8316</v>
       </c>
       <c r="F7" t="n">
-        <v>132.3767</v>
+        <v>269.8</v>
       </c>
       <c r="G7" t="n">
-        <v>10021.7</v>
+        <v>21361.9533</v>
       </c>
       <c r="H7" t="n">
-        <v>3761.2</v>
+        <v>7531.1716</v>
       </c>
       <c r="I7" t="n">
-        <v>8478</v>
+        <v>21432.4804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.8</v>
+        <v>195.9958</v>
       </c>
       <c r="C8" t="n">
-        <v>11186.6</v>
+        <v>18088.836</v>
       </c>
       <c r="D8" t="n">
-        <v>6458.9</v>
+        <v>18450.9814</v>
       </c>
       <c r="E8" t="n">
-        <v>598.1</v>
+        <v>483.9449</v>
       </c>
       <c r="F8" t="n">
-        <v>125.7582</v>
+        <v>309.4</v>
       </c>
       <c r="G8" t="n">
-        <v>11580.3</v>
+        <v>21719.9691</v>
       </c>
       <c r="H8" t="n">
-        <v>4151.5</v>
+        <v>7811.5676</v>
       </c>
       <c r="I8" t="n">
-        <v>10268.5</v>
+        <v>21889.2992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.98999999999999</v>
+        <v>192.8328</v>
       </c>
       <c r="C9" t="n">
-        <v>11644.6</v>
+        <v>18784.1767</v>
       </c>
       <c r="D9" t="n">
-        <v>7775.3</v>
+        <v>19300.2072</v>
       </c>
       <c r="E9" t="n">
-        <v>538.5</v>
+        <v>458.1</v>
       </c>
       <c r="F9" t="n">
-        <v>129.4405</v>
+        <v>318.2</v>
       </c>
       <c r="G9" t="n">
-        <v>13420</v>
+        <v>22288.3839</v>
       </c>
       <c r="H9" t="n">
-        <v>4600</v>
+        <v>8034.3245</v>
       </c>
       <c r="I9" t="n">
-        <v>12173.3</v>
+        <v>22723.6998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.7684</v>
+        <v>198.5012</v>
       </c>
       <c r="C10" t="n">
-        <v>12399.8484</v>
+        <v>19643.454</v>
       </c>
       <c r="D10" t="n">
-        <v>9254.1091</v>
+        <v>20434.1439</v>
       </c>
       <c r="E10" t="n">
-        <v>516.7</v>
+        <v>452.2541</v>
       </c>
       <c r="F10" t="n">
-        <v>139.5349126983</v>
+        <v>357.6225</v>
       </c>
       <c r="G10" t="n">
-        <v>14987.7384</v>
+        <v>23307.5394</v>
       </c>
       <c r="H10" t="n">
-        <v>5007.8886</v>
+        <v>8373.2981</v>
       </c>
       <c r="I10" t="n">
-        <v>13787.2324</v>
+        <v>23874.3621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.5744</v>
+        <v>194.3776</v>
       </c>
       <c r="C11" t="n">
-        <v>12715.4688</v>
+        <v>20542.6638</v>
       </c>
       <c r="D11" t="n">
-        <v>10875.6731</v>
+        <v>21417.3</v>
       </c>
       <c r="E11" t="n">
-        <v>483.8905</v>
+        <v>461.2</v>
       </c>
       <c r="F11" t="n">
-        <v>145.7592</v>
+        <v>396.7704</v>
       </c>
       <c r="G11" t="n">
-        <v>16410.519</v>
+        <v>24224.3513</v>
       </c>
       <c r="H11" t="n">
-        <v>5526.8987</v>
+        <v>8700.356400000001</v>
       </c>
       <c r="I11" t="n">
-        <v>14895.5111</v>
+        <v>25478.3634</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>147.4509</v>
+        <v>187.5999</v>
       </c>
       <c r="C12" t="n">
-        <v>13375.595</v>
+        <v>21689.4756</v>
       </c>
       <c r="D12" t="n">
-        <v>12335.9483</v>
+        <v>23567.3065</v>
       </c>
       <c r="E12" t="n">
-        <v>431.6</v>
+        <v>515.1</v>
       </c>
       <c r="F12" t="n">
-        <v>140.4485</v>
+        <v>413.9</v>
       </c>
       <c r="G12" t="n">
-        <v>17791.1617</v>
+        <v>25428.8229</v>
       </c>
       <c r="H12" t="n">
-        <v>5943.513</v>
+        <v>9026.279399999999</v>
       </c>
       <c r="I12" t="n">
-        <v>16160.7122</v>
+        <v>26763.4146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.0105</v>
+        <v>206.2417</v>
       </c>
       <c r="C13" t="n">
-        <v>14317.0725</v>
+        <v>22957.9281</v>
       </c>
       <c r="D13" t="n">
-        <v>13891.9887</v>
+        <v>23751.7075</v>
       </c>
       <c r="E13" t="n">
-        <v>394.3992</v>
+        <v>607.562</v>
       </c>
       <c r="F13" t="n">
-        <v>159.8544143714</v>
+        <v>530.6527</v>
       </c>
       <c r="G13" t="n">
-        <v>18948.4781</v>
+        <v>26106.4908</v>
       </c>
       <c r="H13" t="n">
-        <v>6278.6184</v>
+        <v>9324.365900000001</v>
       </c>
       <c r="I13" t="n">
-        <v>17695.9436</v>
+        <v>28286.506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>190.5114</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>15224.714</v>
+        <v>23807</v>
       </c>
       <c r="D14" t="n">
-        <v>15428.6522</v>
-      </c>
-      <c r="E14" t="n">
-        <v>390.0537</v>
-      </c>
-      <c r="F14" t="n">
-        <v>181.29338584</v>
-      </c>
-      <c r="G14" t="n">
-        <v>19861.3225</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6624.2424</v>
-      </c>
+        <v>24608</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>19010.0989</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>195.1522</v>
-      </c>
-      <c r="C15" t="n">
-        <v>16416.833</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16391.9924</v>
-      </c>
-      <c r="E15" t="n">
-        <v>416.7445</v>
-      </c>
-      <c r="F15" t="n">
-        <v>203.23885051</v>
-      </c>
-      <c r="G15" t="n">
-        <v>20501.2931</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6941.8482</v>
-      </c>
-      <c r="I15" t="n">
-        <v>19917.2415</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>198.1508</v>
-      </c>
-      <c r="C16" t="n">
-        <v>17042.574</v>
-      </c>
-      <c r="D16" t="n">
-        <v>17038.6583</v>
-      </c>
-      <c r="E16" t="n">
-        <v>422.0321</v>
-      </c>
-      <c r="F16" t="n">
-        <v>233.2793893034</v>
-      </c>
-      <c r="G16" t="n">
-        <v>21041.2602</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7254.7729</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20639.1566</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>201.8645</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17325.987</v>
-      </c>
-      <c r="D17" t="n">
-        <v>17771.0437</v>
-      </c>
-      <c r="E17" t="n">
-        <v>456.8316</v>
-      </c>
-      <c r="F17" t="n">
-        <v>269.8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>21361.9533</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7531.1716</v>
-      </c>
-      <c r="I17" t="n">
-        <v>21432.4804</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>195.9958</v>
-      </c>
-      <c r="C18" t="n">
-        <v>18088.836</v>
-      </c>
-      <c r="D18" t="n">
-        <v>18450.9814</v>
-      </c>
-      <c r="E18" t="n">
-        <v>483.9449</v>
-      </c>
-      <c r="F18" t="n">
-        <v>309.4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>21719.9691</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7811.5676</v>
-      </c>
-      <c r="I18" t="n">
-        <v>21889.2992</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>192.8328</v>
-      </c>
-      <c r="C19" t="n">
-        <v>18784.1767</v>
-      </c>
-      <c r="D19" t="n">
-        <v>19300.2072</v>
-      </c>
-      <c r="E19" t="n">
-        <v>458.1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>318.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>22288.3839</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8034.3245</v>
-      </c>
-      <c r="I19" t="n">
-        <v>22723.6998</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>198.5012</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19643.454</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20434.1439</v>
-      </c>
-      <c r="E20" t="n">
-        <v>452.2541</v>
-      </c>
-      <c r="F20" t="n">
-        <v>357.6225</v>
-      </c>
-      <c r="G20" t="n">
-        <v>23307.5394</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8373.2981</v>
-      </c>
-      <c r="I20" t="n">
-        <v>23874.3621</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>194.3776</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20542.6638</v>
-      </c>
-      <c r="D21" t="n">
-        <v>21417.3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>461.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>396.7704</v>
-      </c>
-      <c r="G21" t="n">
-        <v>24224.3513</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8700.356400000001</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25478.3634</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>187.5999</v>
-      </c>
-      <c r="C22" t="n">
-        <v>21689.4756</v>
-      </c>
-      <c r="D22" t="n">
-        <v>23567.3065</v>
-      </c>
-      <c r="E22" t="n">
-        <v>515.1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>413.9</v>
-      </c>
-      <c r="G22" t="n">
-        <v>25428.8229</v>
-      </c>
-      <c r="H22" t="n">
-        <v>9026.279399999999</v>
-      </c>
-      <c r="I22" t="n">
-        <v>26763.4146</v>
+        <v>29111</v>
       </c>
     </row>
   </sheetData>
